--- a/example/game_01_minirpg/heroes.xlsx
+++ b/example/game_01_minirpg/heroes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,9 @@
       <c r="T1" t="str">
         <v>Story Blurb</v>
       </c>
+      <c r="U1" t="str">
+        <v>Portrait</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -525,6 +528,9 @@
       <c r="T2" t="str">
         <v>string</v>
       </c>
+      <c r="U2" t="str">
+        <v>string</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -587,6 +593,9 @@
       <c r="T3" t="str">
         <v>story</v>
       </c>
+      <c r="U3" t="str">
+        <v>portrait</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -649,6 +658,9 @@
       <c r="T4" t="str">
         <v>守护北境的年轻骑士，擅长用盾形构筑防线。</v>
       </c>
+      <c r="U4" t="str">
+        <v>https://images.unsplash.com/photo-1526272560260-5b1c131dea52?auto=format&amp;fit=crop&amp;w=600&amp;q=80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -711,6 +723,9 @@
       <c r="T5" t="str">
         <v>天赋异禀的法师，对古代秘术痴迷，善于远程压制。</v>
       </c>
+      <c r="U5" t="str">
+        <v>https://images.unsplash.com/photo-1525182008055-f88b95ff7980?auto=format&amp;fit=crop&amp;w=600&amp;q=80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -773,6 +788,9 @@
       <c r="T6" t="str">
         <v>雇佣兵出身的游侠，行动迅捷，擅长毒刃。</v>
       </c>
+      <c r="U6" t="str">
+        <v>https://images.unsplash.com/photo-1529245019870-59a6d1ef7c86?auto=format&amp;fit=crop&amp;w=600&amp;q=80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -835,10 +853,13 @@
       <c r="T7" t="str">
         <v>掌握月影之术的刺客，能在暗夜中穿梭并施展幻舞。</v>
       </c>
+      <c r="U7" t="str">
+        <v>https://images.unsplash.com/photo-1500530855697-b586d89ba3ee?auto=format&amp;fit=crop&amp;w=600&amp;q=80</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U7"/>
   </ignoredErrors>
 </worksheet>
 </file>